--- a/Documents/Finance/Timesheets/Zayyaad Tagwai/ZT530 week 5 timesheet.xlsx
+++ b/Documents/Finance/Timesheets/Zayyaad Tagwai/ZT530 week 5 timesheet.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="720" windowWidth="20730" windowHeight="11640"/>
+    <workbookView xWindow="640" yWindow="720" windowWidth="20740" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,17 @@
   <definedNames>
     <definedName name="valuevx">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>Weekly Employee Timesheet</t>
   </si>
@@ -101,6 +106,12 @@
   </si>
   <si>
     <t>ZT</t>
+  </si>
+  <si>
+    <t>Prakruti Sinha</t>
+  </si>
+  <si>
+    <t>P.S</t>
   </si>
 </sst>
 </file>
@@ -326,7 +337,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -334,23 +345,23 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -359,7 +370,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -367,36 +378,36 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -405,7 +416,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -414,7 +425,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -422,14 +433,14 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -438,7 +449,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -449,7 +460,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -457,7 +468,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -468,17 +479,17 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -487,7 +498,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -495,7 +506,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -505,7 +516,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -571,6 +582,41 @@
     <xf numFmtId="165" fontId="19" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -583,45 +629,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -927,117 +935,119 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33:G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" style="12" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" style="12" customWidth="1"/>
     <col min="2" max="8" width="9" style="12" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" style="12" customWidth="1"/>
+    <col min="9" max="9" width="11.1640625" style="12" customWidth="1"/>
     <col min="10" max="10" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-    </row>
-    <row r="2" spans="1:9" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="14" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+    </row>
+    <row r="2" spans="1:9" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" s="12" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="43" t="s">
+    <row r="3" spans="1:9" s="12" customFormat="1" ht="21" customHeight="1">
+      <c r="A3" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-    </row>
-    <row r="4" spans="1:9" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="39"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="35" t="s">
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+    </row>
+    <row r="4" spans="1:9" s="12" customFormat="1" ht="15" customHeight="1">
+      <c r="A4" s="29"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="34"/>
-      <c r="G4" s="29" t="s">
+      <c r="F4" s="28"/>
+      <c r="G4" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-    </row>
-    <row r="5" spans="1:9" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="39"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+    </row>
+    <row r="5" spans="1:9" s="12" customFormat="1" ht="15" customHeight="1">
+      <c r="A5" s="29"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
       <c r="G5" s="9"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" spans="1:9" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A6" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="35" t="s">
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="34"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-    </row>
-    <row r="7" spans="1:9" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="40" t="s">
+      <c r="F6" s="28"/>
+      <c r="G6" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+    </row>
+    <row r="7" spans="1:9" s="12" customFormat="1" ht="15" customHeight="1">
+      <c r="A7" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
       <c r="G7" s="9"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
     </row>
-    <row r="8" spans="1:9" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A8" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="35" t="s">
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="34"/>
-      <c r="G8" s="36">
+      <c r="F8" s="28"/>
+      <c r="G8" s="35">
         <v>41659</v>
       </c>
-      <c r="H8" s="37"/>
+      <c r="H8" s="36"/>
       <c r="I8" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" spans="1:9" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A10" s="18" t="s">
         <v>5</v>
       </c>
@@ -1066,7 +1076,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="12" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" s="12" customFormat="1" ht="21" customHeight="1">
       <c r="A11" s="23">
         <f>G8</f>
         <v>41659</v>
@@ -1097,7 +1107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="12" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" s="12" customFormat="1" ht="21" customHeight="1">
       <c r="A12" s="24">
         <f t="shared" ref="A12:A17" si="1">A11+1</f>
         <v>41660</v>
@@ -1128,7 +1138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="12" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" s="12" customFormat="1" ht="21" customHeight="1">
       <c r="A13" s="24">
         <f t="shared" si="1"/>
         <v>41661</v>
@@ -1159,7 +1169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="12" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" s="12" customFormat="1" ht="21" customHeight="1">
       <c r="A14" s="24">
         <f t="shared" si="1"/>
         <v>41662</v>
@@ -1190,7 +1200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="12" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" s="12" customFormat="1" ht="21" customHeight="1">
       <c r="A15" s="24">
         <f t="shared" si="1"/>
         <v>41663</v>
@@ -1221,7 +1231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="12" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" s="12" customFormat="1" ht="21" customHeight="1">
       <c r="A16" s="24">
         <f t="shared" si="1"/>
         <v>41664</v>
@@ -1252,7 +1262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="12" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" s="12" customFormat="1" ht="21" customHeight="1">
       <c r="A17" s="24">
         <f t="shared" si="1"/>
         <v>41665</v>
@@ -1283,7 +1293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="12" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" s="12" customFormat="1" ht="21" customHeight="1">
       <c r="A18" s="20" t="s">
         <v>14</v>
       </c>
@@ -1320,7 +1330,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="12" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" s="12" customFormat="1" ht="21" customHeight="1">
       <c r="A19" s="11" t="s">
         <v>15</v>
       </c>
@@ -1349,7 +1359,7 @@
       </c>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" s="12" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" s="12" customFormat="1" ht="21" customHeight="1">
       <c r="A20" s="3" t="s">
         <v>16</v>
       </c>
@@ -1386,96 +1396,85 @@
         <v>62.5</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:9" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="38" t="s">
+    <row r="21" spans="1:9" ht="15" customHeight="1"/>
+    <row r="22" spans="1:9" s="12" customFormat="1" ht="15" customHeight="1">
+      <c r="A22" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
       <c r="D22" s="13">
         <f>I18</f>
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="38" t="s">
+    <row r="23" spans="1:9" s="12" customFormat="1" ht="15" customHeight="1">
+      <c r="A23" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
       <c r="D23" s="13">
         <f>I20</f>
         <v>62.5</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:9" s="12" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="29" t="s">
+    <row r="24" spans="1:9" ht="15" customHeight="1"/>
+    <row r="25" spans="1:9" s="12" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A25" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="31">
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="42">
         <v>41669</v>
       </c>
-      <c r="E25" s="30"/>
-    </row>
-    <row r="26" spans="1:9" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="25" t="s">
+      <c r="E25" s="32"/>
+    </row>
+    <row r="26" spans="1:9" s="12" customFormat="1" ht="15" customHeight="1">
+      <c r="A26" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="25" t="s">
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="26"/>
-    </row>
-    <row r="27" spans="1:9" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="32"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="30"/>
-    </row>
-    <row r="28" spans="1:9" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="25" t="s">
+      <c r="E26" s="39"/>
+    </row>
+    <row r="27" spans="1:9" s="12" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A27" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="42">
+        <v>41682</v>
+      </c>
+      <c r="E27" s="32"/>
+    </row>
+    <row r="28" spans="1:9" s="12" customFormat="1" ht="15" customHeight="1">
+      <c r="A28" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="25" t="s">
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="26"/>
-    </row>
-    <row r="29" spans="1:9" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A30" s="27"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
+      <c r="E28" s="39"/>
+    </row>
+    <row r="29" spans="1:9" s="12" customFormat="1" ht="15" customHeight="1"/>
+    <row r="30" spans="1:9" ht="12">
+      <c r="A30" s="40"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A28:C28"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="A30:C30"/>
@@ -1486,8 +1485,28 @@
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="D27:E27"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Documents/Finance/Timesheets/Zayyaad Tagwai/ZT530 week 5 timesheet.xlsx
+++ b/Documents/Finance/Timesheets/Zayyaad Tagwai/ZT530 week 5 timesheet.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="720" windowWidth="20740" windowHeight="11640"/>
+    <workbookView xWindow="630" yWindow="720" windowWidth="20730" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly" sheetId="1" r:id="rId1"/>
@@ -12,17 +12,12 @@
   <definedNames>
     <definedName name="valuevx">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>Weekly Employee Timesheet</t>
   </si>
@@ -106,12 +101,6 @@
   </si>
   <si>
     <t>ZT</t>
-  </si>
-  <si>
-    <t>Prakruti Sinha</t>
-  </si>
-  <si>
-    <t>P.S</t>
   </si>
 </sst>
 </file>
@@ -337,7 +326,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -345,23 +334,23 @@
       <left/>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -370,7 +359,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -378,36 +367,36 @@
       <left/>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -416,7 +405,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -425,7 +414,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -433,14 +422,14 @@
       <left/>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top/>
@@ -449,7 +438,7 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top/>
@@ -460,7 +449,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -468,7 +457,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
@@ -479,17 +468,17 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -498,7 +487,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -506,7 +495,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
@@ -516,7 +505,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -630,6 +619,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -935,19 +927,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33:G34"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26:E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" style="12" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" style="12" customWidth="1"/>
     <col min="2" max="8" width="9" style="12" customWidth="1"/>
-    <col min="9" max="9" width="11.1640625" style="12" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" style="12" customWidth="1"/>
     <col min="10" max="10" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="14" customFormat="1" ht="30.75" customHeight="1">
+    <row r="1" spans="1:9" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -960,10 +952,10 @@
       <c r="H1" s="26"/>
       <c r="I1" s="26"/>
     </row>
-    <row r="2" spans="1:9" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="2" spans="1:9" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" s="12" customFormat="1" ht="21" customHeight="1">
+    <row r="3" spans="1:9" s="12" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="27" t="s">
         <v>23</v>
       </c>
@@ -972,7 +964,7 @@
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
     </row>
-    <row r="4" spans="1:9" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="4" spans="1:9" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29"/>
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
@@ -987,7 +979,7 @@
       <c r="H4" s="32"/>
       <c r="I4" s="32"/>
     </row>
-    <row r="5" spans="1:9" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="5" spans="1:9" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29"/>
       <c r="B5" s="28"/>
       <c r="C5" s="28"/>
@@ -996,7 +988,7 @@
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" spans="1:9" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="6" spans="1:9" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="33" t="s">
         <v>21</v>
       </c>
@@ -1007,13 +999,11 @@
         <v>2</v>
       </c>
       <c r="F6" s="28"/>
-      <c r="G6" s="31" t="s">
-        <v>27</v>
-      </c>
+      <c r="G6" s="31"/>
       <c r="H6" s="32"/>
       <c r="I6" s="32"/>
     </row>
-    <row r="7" spans="1:9" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="7" spans="1:9" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="34" t="s">
         <v>24</v>
       </c>
@@ -1024,7 +1014,7 @@
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
     </row>
-    <row r="8" spans="1:9" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="8" spans="1:9" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="33" t="s">
         <v>22</v>
       </c>
@@ -1036,18 +1026,18 @@
       </c>
       <c r="F8" s="28"/>
       <c r="G8" s="35">
-        <v>41659</v>
+        <v>41673</v>
       </c>
       <c r="H8" s="36"/>
       <c r="I8" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="9" spans="1:9" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" spans="1:9" s="5" customFormat="1" ht="27" customHeight="1">
+    <row r="10" spans="1:9" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
         <v>5</v>
       </c>
@@ -1076,10 +1066,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="12" customFormat="1" ht="21" customHeight="1">
+    <row r="11" spans="1:9" s="12" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="23">
         <f>G8</f>
-        <v>41659</v>
+        <v>41673</v>
       </c>
       <c r="B11" s="4">
         <v>1</v>
@@ -1107,10 +1097,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="12" customFormat="1" ht="21" customHeight="1">
+    <row r="12" spans="1:9" s="12" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="24">
         <f t="shared" ref="A12:A17" si="1">A11+1</f>
-        <v>41660</v>
+        <v>41674</v>
       </c>
       <c r="B12" s="4">
         <v>1</v>
@@ -1138,10 +1128,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="12" customFormat="1" ht="21" customHeight="1">
+    <row r="13" spans="1:9" s="12" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="24">
         <f t="shared" si="1"/>
-        <v>41661</v>
+        <v>41675</v>
       </c>
       <c r="B13" s="4">
         <v>0</v>
@@ -1169,10 +1159,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="12" customFormat="1" ht="21" customHeight="1">
+    <row r="14" spans="1:9" s="12" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="24">
         <f t="shared" si="1"/>
-        <v>41662</v>
+        <v>41676</v>
       </c>
       <c r="B14" s="4">
         <v>2</v>
@@ -1200,10 +1190,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="12" customFormat="1" ht="21" customHeight="1">
+    <row r="15" spans="1:9" s="12" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="24">
         <f t="shared" si="1"/>
-        <v>41663</v>
+        <v>41677</v>
       </c>
       <c r="B15" s="4">
         <v>0</v>
@@ -1231,10 +1221,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="12" customFormat="1" ht="21" customHeight="1">
+    <row r="16" spans="1:9" s="12" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="24">
         <f t="shared" si="1"/>
-        <v>41664</v>
+        <v>41678</v>
       </c>
       <c r="B16" s="4">
         <v>1</v>
@@ -1262,10 +1252,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="12" customFormat="1" ht="21" customHeight="1">
+    <row r="17" spans="1:9" s="12" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="24">
         <f t="shared" si="1"/>
-        <v>41665</v>
+        <v>41679</v>
       </c>
       <c r="B17" s="4">
         <v>0</v>
@@ -1293,7 +1283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="12" customFormat="1" ht="21" customHeight="1">
+    <row r="18" spans="1:9" s="12" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="20" t="s">
         <v>14</v>
       </c>
@@ -1330,7 +1320,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="12" customFormat="1" ht="21" customHeight="1">
+    <row r="19" spans="1:9" s="12" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>15</v>
       </c>
@@ -1359,7 +1349,7 @@
       </c>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" s="12" customFormat="1" ht="21" customHeight="1">
+    <row r="20" spans="1:9" s="12" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>16</v>
       </c>
@@ -1396,8 +1386,8 @@
         <v>62.5</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1"/>
-    <row r="22" spans="1:9" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:9" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="37" t="s">
         <v>17</v>
       </c>
@@ -1408,7 +1398,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="23" spans="1:9" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="37" t="s">
         <v>16</v>
       </c>
@@ -1419,19 +1409,19 @@
         <v>62.5</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1"/>
-    <row r="25" spans="1:9" s="12" customFormat="1" ht="24.75" customHeight="1">
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:9" s="12" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="31" t="s">
         <v>26</v>
       </c>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
       <c r="D25" s="42">
-        <v>41669</v>
+        <v>41684</v>
       </c>
       <c r="E25" s="32"/>
     </row>
-    <row r="26" spans="1:9" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="26" spans="1:9" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="38" t="s">
         <v>18</v>
       </c>
@@ -1442,18 +1432,14 @@
       </c>
       <c r="E26" s="39"/>
     </row>
-    <row r="27" spans="1:9" s="12" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A27" s="31" t="s">
-        <v>28</v>
-      </c>
+    <row r="27" spans="1:9" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="43"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
-      <c r="D27" s="42">
-        <v>41682</v>
-      </c>
+      <c r="D27" s="43"/>
       <c r="E27" s="32"/>
     </row>
-    <row r="28" spans="1:9" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="28" spans="1:9" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="38" t="s">
         <v>20</v>
       </c>
@@ -1464,8 +1450,8 @@
       </c>
       <c r="E28" s="39"/>
     </row>
-    <row r="29" spans="1:9" s="12" customFormat="1" ht="15" customHeight="1"/>
-    <row r="30" spans="1:9" ht="12">
+    <row r="29" spans="1:9" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
       <c r="B30" s="40"/>
       <c r="C30" s="40"/>
@@ -1502,11 +1488,6 @@
     <mergeCell ref="G4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>